--- a/18 financial/基金.xlsx
+++ b/18 financial/基金.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="选择" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>数据源：巨潮网 理杏仁 英为财情</t>
   </si>
@@ -179,6 +179,9 @@
   <si>
     <t>股债平衡</t>
   </si>
+  <si>
+    <t>目标 分析当前是否在有基金进入合理区间，已有的是否触发卖出</t>
+  </si>
 </sst>
 </file>
 
@@ -207,15 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,9 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,11 +238,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,16 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +303,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,9 +326,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,40 +340,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,66 +374,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,31 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +416,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,19 +464,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,6 +563,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -570,6 +588,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,56 +642,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -650,9 +651,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2755,8 +2758,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3610,7 +3613,7 @@
   <sheetPr/>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:Q11"/>
     </sheetView>
   </sheetViews>
@@ -4562,8 +4565,8 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4840,8 +4843,10 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1"/>
+    <row r="15" ht="20" customHeight="1" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>

--- a/18 financial/基金.xlsx
+++ b/18 financial/基金.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="22470" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="选择" sheetId="1" r:id="rId1"/>
-    <sheet name="基本功课" sheetId="5" r:id="rId2"/>
+    <sheet name="基本功课" sheetId="5" r:id="rId1"/>
+    <sheet name="选择" sheetId="1" r:id="rId2"/>
     <sheet name="买入卖出看温度区间" sheetId="2" r:id="rId3"/>
     <sheet name="网格策略" sheetId="6" r:id="rId4"/>
     <sheet name="配置" sheetId="3" r:id="rId5"/>
@@ -20,40 +20,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>数据源：巨潮网 理杏仁 英为财情</t>
-  </si>
-  <si>
-    <t>3年以上，一个小周期3年
-货币基金最主要是看中其流通，收益率一般即可，别的选3年收益率越高越好
-货币基金要大于&gt;20亿，债券基金 5~100亿，股票型基金、混合基金 2~100亿
-基金经理过往业绩，尤其是股票型、混合型基金要审查基金经理
-流通性，就是卖出什么时候到账，货币最好选T+0</t>
+    <t>基础</t>
   </si>
   <si>
     <t>投资金额 可以根据自己目标定 excel的PMT(r/12,n*12,,FV,1), 例如要十年内收益达到40万，预期收益每年12%，每个月要投资多少？PMT(12%/12,10*12,,400000)= -1738.84元</t>
   </si>
   <si>
-    <t xml:space="preserve">
-基金的 4433法则
-  中长期指标 1年排名在同类中1/4内   2、3、5年在同类中1/4
-  短期指标   6个月内1/3 3个月1/3
-周期类行业
-  不是所有周期类都可以选，选那些在熊市依然不会有大面积的亏损的那些
-房地产 
-  人口指标
-  二手交易市场
-  容积率
-  贷款的还法</t>
+    <t>宏观经济了解</t>
+  </si>
+  <si>
+    <t>美联储 加息?减息?   了解即可</t>
+  </si>
+  <si>
+    <t>消费物价指数cpi 衡量通货膨胀的</t>
+  </si>
+  <si>
+    <t>国内利率变动，十年国债收益率</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">新闻怎么看
   中央经济工作会议
   注意横行纵向对比新闻：现在形势、跟去年措辞有哪些不一样了
@@ -72,48 +57,36 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">
+房地产 
+  人口指标
+  二手交易市场
+  容积率
+  贷款的还法</t>
+  </si>
+  <si>
     <t>能源 材料 工业 医药 可选消费等。
 消费、医疗是人类永恒的需求，过去十年表现最好的就是这两个；强周期行业：金融、地产、煤炭、化工等，不是所有的强周期行业都适合投资，周期行业中证券行业最容易赚钱
 我觉得比较靠谱的盈利因子：红利、质量、动能</t>
   </si>
   <si>
-    <t>夏普指数 参照银行 &gt;0 优于银行定存 =0 代表跟银行定存一样
-标准差 越低代表越稳定，高则代表时坏时差
-β &gt;1大于市场波动 &lt;1小于市场波动</t>
+    <t>3年以上，一个小周期3年
+货币基金最主要是看中其流通，收益率一般即可，别的选3年收益率越高越好
+货币基金要大于&gt;20亿，债券基金 5~100亿，股票型基金、混合基金 2~100亿
+基金经理过往业绩，尤其是股票型、混合型基金要审查基金经理
+流通性，就是卖出什么时候到账，货币最好选T+0</t>
   </si>
   <si>
-    <t>国内生产总值</t>
+    <t>基金的 4433法则
+  中长期指标 1年排名在同类中1/4内   2、3、5年在同类中1/4
+  短期指标   6个月内1/3 3个月1/3</t>
   </si>
   <si>
-    <t>美联储 加息?减息?</t>
-  </si>
-  <si>
-    <t>消费物价指数 衡量通货膨胀的</t>
-  </si>
-  <si>
-    <t>工业生产指数与产能利用率
-产能利用率偏高代表需求大于供给，厂商有调高价格的欲望
-工业生产指数上升代表经济加速，但也有可能过热，需谨慎</t>
-  </si>
-  <si>
-    <t>国内利率变动，十年国债收益率</t>
-  </si>
-  <si>
-    <t>技术面
-kd值是利用周期中的最高价、最低价和收盘价来计算未来的随机值 
-80以上代表上涨
-50是强弱的分界线
-20以下代表跌势
-k线 快速动线 k&gt;d 涨势,k穿越d时为黄金交叉，加速布局 
-d线 慢速动线 d&gt;k 跌势, k跌破d时为死亡交叉，卖出</t>
-  </si>
-  <si>
-    <t>作者的手法，平时看周kd，参考日kd、月kd，原则上，大环境不差，低于20大力买
-入，黄金交叉时还有筹码就买进，到80时，准备分批卖出如果还没出现死亡交叉就可
-以等等，k下弯时，分批卖出，出现死亡交叉清空</t>
-  </si>
-  <si>
-    <t>量先价行，一般量坍缩时时入场的好时机，但也要小心量价背离时市场反转，继续向下</t>
+    <t xml:space="preserve">
+夏普指数 参照银行 &gt;0 优于银行定存 =0 代表跟银行定存一样
+标准差 越低代表越稳定，高则代表时坏时差
+β &gt;1大于市场波动 &lt;1小于市场波动
+</t>
   </si>
   <si>
     <t>分多次进场，子弹不要一次性打光，大跌大买，小跌小买,出场要爽快点，通常设置2~3次出场</t>
@@ -157,6 +130,23 @@
 peg=股价/(eps*未来三年复合增长率*100)
 所以股价的上升受pe跟eps影响，其中一个发生改变会导致另一个上升，股价就会叠加上升，戴维斯双击。反之亦然。
 卖出：先看基本面是否高估，可以在回落趋势线10%卖出，为什么是10%，因为震荡3%-5%太频繁</t>
+  </si>
+  <si>
+    <t>技术面
+kd值是利用周期中的最高价、最低价和收盘价来计算未来的随机值 
+80以上代表上涨
+50是强弱的分界线
+20以下代表跌势
+k线 快速动线 k&gt;d 涨势,k穿越d时为黄金交叉，加速布局 
+d线 慢速动线 d&gt;k 跌势, k跌破d时为死亡交叉，卖出</t>
+  </si>
+  <si>
+    <t>作者的手法，平时看周kd，参考日kd、月kd，原则上，大环境不差，低于20大力买
+入，黄金交叉时还有筹码就买进，到80时，准备分批卖出如果还没出现死亡交叉就可
+以等等，k下弯时，分批卖出，出现死亡交叉清空</t>
+  </si>
+  <si>
+    <t>量先价行，一般量坍缩时时入场的好时机，但也要小心量价背离时市场反转，继续向下</t>
   </si>
   <si>
     <t>寻找波动频繁的基金做，只做10%左右</t>
@@ -353,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,16 +675,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,10 +696,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,28 +720,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -754,19 +750,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,38 +771,41 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +826,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1153,195 +1161,172 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:Z13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="22" customHeight="1" spans="1:26">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="104" customHeight="1" spans="1:26">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:26">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="1:26">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" ht="50" customHeight="1" spans="1:26">
-      <c r="A5" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:26">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" ht="203" customHeight="1" spans="1:26">
-      <c r="A7" s="2" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" ht="108" customHeight="1" spans="1:26">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1368,9 +1353,9 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="132" customHeight="1" spans="1:26">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
+    <row r="9" ht="69" customHeight="1" spans="1:26">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1398,1300 +1383,1895 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" ht="105" customHeight="1" spans="1:26">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:Z8"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A30:Q30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:Z13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71" customHeight="1" spans="1:26">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="93" customHeight="1" spans="1:26">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" ht="65" customHeight="1" spans="1:26">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" ht="59" customHeight="1" spans="1:26">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:26">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:26">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:26">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+    </row>
+    <row r="10" ht="23" customHeight="1" spans="1:26">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:26">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" ht="88" customHeight="1" spans="1:26">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" ht="23" customHeight="1" spans="1:26">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:26">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:26">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:26">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:26">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:26">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" ht="19" customHeight="1" spans="1:26">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="51">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:Z2"/>
     <mergeCell ref="A3:Z3"/>
@@ -2743,115 +3323,107 @@
     <mergeCell ref="A49:Z49"/>
     <mergeCell ref="A50:Z50"/>
     <mergeCell ref="A51:Z51"/>
-    <mergeCell ref="A52:Z52"/>
-    <mergeCell ref="A53:Z53"/>
-    <mergeCell ref="A54:Z54"/>
-    <mergeCell ref="A55:Z55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:Q19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:17">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" ht="22" customHeight="1" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" ht="101" customHeight="1" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" ht="54" customHeight="1" spans="1:17">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2869,27 +3441,10 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1"/>
+    <row r="7" ht="60" customHeight="1" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2907,8 +3462,10 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1"/>
+    <row r="8" ht="137" customHeight="1" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2926,10 +3483,8 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" ht="144" customHeight="1" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2947,9 +3502,9 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" ht="62" customHeight="1" spans="1:17">
+    <row r="10" ht="84" customHeight="1" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2968,7 +3523,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" ht="37" customHeight="1" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2987,9 +3542,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+    <row r="12" ht="114" customHeight="1" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3065,8 +3620,10 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1"/>
+    <row r="16" ht="144" customHeight="1" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3084,8 +3641,10 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1"/>
+    <row r="17" ht="62" customHeight="1" spans="1:17">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3104,7 +3663,9 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3122,823 +3683,8 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A37:Q37"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A40:Q40"/>
-    <mergeCell ref="A41:Q41"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" ht="37" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" ht="101" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" ht="54" customHeight="1" spans="1:17">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="7" ht="60" customHeight="1" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" ht="137" customHeight="1" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" ht="84" customHeight="1" spans="1:17">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:17">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" ht="114" customHeight="1" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -3955,6 +3701,7 @@
     <mergeCell ref="A15:Q15"/>
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:Q18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3966,7 +3713,7 @@
   <sheetPr/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:R4"/>
     </sheetView>
   </sheetViews>
@@ -4566,7 +4313,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:Q15"/>
+      <selection activeCell="A26" sqref="A26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
